--- a/docs/Spectrum-VGA-timings.xlsx
+++ b/docs/Spectrum-VGA-timings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphical" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Graphical!$A$4:$L$16</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,10 +643,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,47 +981,50 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A11:C16" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
-  <autoFilter ref="A11:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A11:C16" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A11:C16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <sortState ref="A22:C26">
     <sortCondition ref="A23:A28"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scanline part" dataDxfId="11"/>
-    <tableColumn id="2" name="Pixels" dataDxfId="10"/>
-    <tableColumn id="3" name="Time [µs]" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Scanline part" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pixels" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Time [µs]" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table26" displayName="Table26" ref="A19:C24" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A19:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table26" displayName="Table26" ref="A19:C24" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A19:C24" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <sortState ref="A30:C34">
     <sortCondition ref="A31:A36"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Frame part" dataDxfId="4"/>
-    <tableColumn id="2" name="Lines" dataDxfId="3"/>
-    <tableColumn id="3" name="Time [ms]" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Frame part" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Lines" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Time [ms]" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A5:C8" totalsRowShown="0">
-  <autoFilter ref="A5:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table37" displayName="Table37" ref="A5:C8" totalsRowShown="0">
+  <autoFilter ref="A5:C8" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Parameter" dataDxfId="1"/>
-    <tableColumn id="2" name="Value" dataDxfId="0"/>
-    <tableColumn id="3" name="Unit"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Parameter" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Value" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Unit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1070,7 +1073,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1103,9 +1106,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1138,6 +1158,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1313,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1331,20 +1368,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
@@ -1352,11 +1389,11 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
       <c r="H4" s="1">
         <v>32</v>
       </c>
@@ -1365,11 +1402,11 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
       <c r="H5" s="1">
         <f>H4*8</f>
         <v>256</v>
@@ -1604,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
